--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -16,15 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">                                                                             </t>
     </r>
     <r>
@@ -170,6 +164,9 @@
   <si>
     <t>与北邮Zark,Alaika，做保险的同学谈；和Caro见面</t>
   </si>
+  <si>
+    <t>take rest</t>
+  </si>
 </sst>
 </file>
 
@@ -177,8 +174,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -193,6 +190,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -220,37 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -334,12 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -356,6 +353,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,30 +396,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -801,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1127,8 +1124,8 @@
   <sheetPr/>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1418,12 +1415,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" ht="27" customHeight="1" spans="2:3">
+    <row r="21" ht="27" customHeight="1" spans="2:4">
       <c r="B21" s="3">
         <v>0.979166666666667</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1"/>
